--- a/A2_results_step2.1.xlsx
+++ b/A2_results_step2.1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>N1</t>
   </si>
@@ -52,10 +52,13 @@
     <t>N6</t>
   </si>
   <si>
-    <t>Alpha_offer_o</t>
+    <t>Market_price</t>
   </si>
   <si>
     <t>P_g</t>
+  </si>
+  <si>
+    <t>C_g</t>
   </si>
   <si>
     <t>Alpha_bid</t>
@@ -734,82 +737,109 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>19.10000000000002</v>
       </c>
       <c r="B2">
         <v>155.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>19.10000000000001</v>
       </c>
       <c r="B3">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>19.100000000000012</v>
       </c>
       <c r="B4">
         <v>155.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>19.1</v>
       </c>
       <c r="B5">
         <v>152.50000000000034</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>19.10000000000002</v>
       </c>
       <c r="B6">
         <v>337.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>19.10000000000001</v>
       </c>
       <c r="B7">
         <v>350.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>19.100000000000012</v>
       </c>
       <c r="B8">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>19.1</v>
       </c>
       <c r="B9">
         <v>0.0</v>
+      </c>
+      <c r="C9">
+        <v>24.7</v>
       </c>
     </row>
   </sheetData>
@@ -827,10 +857,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -880,7 +910,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -938,15 +968,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>27735.0</v>
+        <v>18360.249999999993</v>
       </c>
       <c r="B2">
         <v>12590.250000000015</v>
